--- a/experiment/data.FF.gm.n.xlsx
+++ b/experiment/data.FF.gm.n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\octet.formfactor\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB218689-E455-4206-ADD1-1DB542946D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E3E84-0FA9-4A16-9D8B-49DFAAA89A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="8" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="9" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
   </bookViews>
   <sheets>
     <sheet name="Golak2001" sheetId="31" r:id="rId1"/>
@@ -40,13 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="9">
   <si>
     <t>Q2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gev2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,9 +83,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="180" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -138,13 +130,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,7 +458,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -476,18 +468,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -553,9 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2275550-0497-4186-981A-6235497BD317}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -565,21 +555,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -659,7 +649,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -670,21 +660,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -951,6 +941,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -959,7 +950,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -970,21 +961,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1049,7 +1040,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1060,21 +1051,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1111,29 +1102,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423487B9-8254-4B95-8A70-314A75B51344}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1212,7 +1201,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1223,21 +1212,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1315,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DFB0A2-CF14-4629-A2C8-3D0AE25C07D9}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1328,21 +1317,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1397,7 +1386,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1409,21 +1398,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1505,29 +1494,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4578C990-DB36-4B6C-AF02-7BCEDF7C2E25}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/experiment/data.FF.gm.n.xlsx
+++ b/experiment/data.FF.gm.n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\octet.formfactor\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E3E84-0FA9-4A16-9D8B-49DFAAA89A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AB3FDB-7155-43B8-BD21-A523AEE23FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="9" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
   </bookViews>
   <sheets>
     <sheet name="Golak2001" sheetId="31" r:id="rId1"/>
@@ -545,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2275550-0497-4186-981A-6235497BD317}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -646,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C31FB16-7585-4DCD-AFBA-16F1C04911DB}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -688,100 +688,100 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>3.9E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="B3" s="1">
-        <v>-2.3894201736668923</v>
+        <v>-1.716754601921082</v>
       </c>
       <c r="C3">
-        <v>0.5157021957554444</v>
+        <v>9.1560245435791041E-2</v>
       </c>
       <c r="D3">
-        <v>0.5157021957554444</v>
+        <v>9.1560245435791041E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="B4" s="1">
-        <v>-1.716754601921082</v>
+        <v>-1.6288720713229505</v>
       </c>
       <c r="C4">
-        <v>9.1560245435791041E-2</v>
+        <v>4.7385369347576742E-2</v>
       </c>
       <c r="D4">
-        <v>9.1560245435791041E-2</v>
+        <v>4.7385369347576742E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>9.7000000000000003E-2</v>
+        <v>0.113</v>
       </c>
       <c r="B5" s="1">
-        <v>-1.6288720713229505</v>
+        <v>-1.5946292039443166</v>
       </c>
       <c r="C5">
-        <v>4.7385369347576742E-2</v>
+        <v>0.11390208599602261</v>
       </c>
       <c r="D5">
-        <v>4.7385369347576742E-2</v>
+        <v>0.11390208599602261</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>0.113</v>
+        <v>0.16</v>
       </c>
       <c r="B6" s="1">
-        <v>-1.5946292039443166</v>
+        <v>-1.3250619871486329</v>
       </c>
       <c r="C6">
-        <v>0.11390208599602261</v>
+        <v>8.9186864519619519E-2</v>
       </c>
       <c r="D6">
-        <v>0.11390208599602261</v>
+        <v>8.9186864519619519E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>0.16</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="B7" s="1">
-        <v>-1.3250619871486329</v>
+        <v>-1.2596580150531864</v>
       </c>
       <c r="C7">
-        <v>8.9186864519619519E-2</v>
+        <v>4.2803913132875265E-2</v>
       </c>
       <c r="D7">
-        <v>8.9186864519619519E-2</v>
+        <v>4.2803913132875265E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>0.17799999999999999</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="B8" s="1">
-        <v>-1.2596580150531864</v>
+        <v>-0.90288777292301647</v>
       </c>
       <c r="C8">
-        <v>4.2803913132875265E-2</v>
+        <v>2.4973491591487686E-2</v>
       </c>
       <c r="D8">
-        <v>4.2803913132875265E-2</v>
+        <v>2.4973491591487686E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>0.29199999999999998</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.90288777292301647</v>
+        <v>-0.77449338120923894</v>
       </c>
       <c r="C9">
-        <v>2.4973491591487686E-2</v>
+        <v>7.1860210627661347E-2</v>
       </c>
       <c r="D9">
-        <v>2.4973491591487686E-2</v>
+        <v>7.1860210627661347E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -789,69 +789,69 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="B10" s="1">
-        <v>-0.77449338120923894</v>
+        <v>-0.8064312525993107</v>
       </c>
       <c r="C10">
-        <v>7.1860210627661347E-2</v>
+        <v>2.23565099730502E-2</v>
       </c>
       <c r="D10">
-        <v>7.1860210627661347E-2</v>
+        <v>2.23565099730502E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>0.38900000000000001</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.8064312525993107</v>
+        <v>-0.59915938381896194</v>
       </c>
       <c r="C11">
-        <v>2.23565099730502E-2</v>
+        <v>4.7458169015363323E-2</v>
       </c>
       <c r="D11">
-        <v>2.23565099730502E-2</v>
+        <v>4.7458169015363323E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>0.56499999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.59915938381896194</v>
+        <v>-0.62938558596725136</v>
       </c>
       <c r="C12">
-        <v>4.7458169015363323E-2</v>
+        <v>2.0230250977518793E-2</v>
       </c>
       <c r="D12">
-        <v>4.7458169015363323E-2</v>
+        <v>2.0230250977518793E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="B13" s="1">
-        <v>-0.62938558596725136</v>
+        <v>-0.43437900322958417</v>
       </c>
       <c r="C13">
-        <v>2.0230250977518793E-2</v>
+        <v>2.3456466174397544E-2</v>
       </c>
       <c r="D13">
-        <v>2.0230250977518793E-2</v>
+        <v>2.3456466174397544E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.43437900322958417</v>
+        <v>-0.34529939873748849</v>
       </c>
       <c r="C14">
-        <v>2.3456466174397544E-2</v>
+        <v>2.7043505918313334E-2</v>
       </c>
       <c r="D14">
-        <v>2.3456466174397544E-2</v>
+        <v>2.7043505918313334E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -859,82 +859,68 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>-0.34529939873748849</v>
+        <v>-0.32155388134579876</v>
       </c>
       <c r="C15">
-        <v>2.7043505918313334E-2</v>
+        <v>1.8138936896429671E-2</v>
       </c>
       <c r="D15">
-        <v>2.7043505918313334E-2</v>
+        <v>1.8138936896429671E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="B16" s="1">
-        <v>-0.32155388134579876</v>
+        <v>-0.28376511375984609</v>
       </c>
       <c r="C16">
-        <v>1.8138936896429671E-2</v>
+        <v>2.5648000666755322E-2</v>
       </c>
       <c r="D16">
-        <v>1.8138936896429671E-2</v>
+        <v>2.5648000666755322E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.28376511375984609</v>
+        <v>-0.20276723741407246</v>
       </c>
       <c r="C17">
-        <v>2.5648000666755322E-2</v>
+        <v>1.0570803846231266E-2</v>
       </c>
       <c r="D17">
-        <v>2.5648000666755322E-2</v>
+        <v>1.0570803846231266E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="B18" s="1">
-        <v>-0.20276723741407246</v>
+        <v>-0.18521633598430182</v>
       </c>
       <c r="C18">
-        <v>1.0570803846231266E-2</v>
+        <v>1.6837848725845619E-2</v>
       </c>
       <c r="D18">
-        <v>1.0570803846231266E-2</v>
+        <v>1.6837848725845619E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="B19" s="1">
-        <v>-0.18521633598430182</v>
+        <v>-6.9664558531385173E-2</v>
       </c>
       <c r="C19">
-        <v>1.6837848725845619E-2</v>
+        <v>2.1562839545428744E-2</v>
       </c>
       <c r="D19">
-        <v>1.6837848725845619E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="B20" s="1">
-        <v>-6.9664558531385173E-2</v>
-      </c>
-      <c r="C20">
-        <v>2.1562839545428744E-2</v>
-      </c>
-      <c r="D20">
         <v>2.1562839545428744E-2</v>
       </c>
     </row>
